--- a/studies/compareCadavers.xlsx
+++ b/studies/compareCadavers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Fick1850</t>
   </si>
@@ -489,6 +489,708 @@
   </si>
   <si>
     <t>5.0 (4.5)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>108.2 (36.7)</t>
+  </si>
+  <si>
+    <t>13.2 (21.0)</t>
+  </si>
+  <si>
+    <t>36.3 (29.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>7.5 (2.4)</t>
+  </si>
+  <si>
+    <t>4.2 (3.1)</t>
+  </si>
+  <si>
+    <t>3.7 (2.7)</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>93.0 (35.2)</t>
+  </si>
+  <si>
+    <t>24.9 (28.4)</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.8 (2.3)</t>
+  </si>
+  <si>
+    <t>2.8 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.0 (29.4)</t>
+  </si>
+  <si>
+    <t>41.7 (27.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>3.9 (2.8)</t>
+  </si>
+  <si>
+    <t>6.3 (2.6)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>87.4 (37.7)</t>
+  </si>
+  <si>
+    <t>20.1 (24.0)</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.4 (1.5)</t>
+  </si>
+  <si>
+    <t>3.9 (3.5)</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>116.1 (29.9)</t>
+  </si>
+  <si>
+    <t>11.9 (27.1)</t>
+  </si>
+  <si>
+    <t>42.4 (29.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.1 (4.2)</t>
+  </si>
+  <si>
+    <t>4.1 (3.3)</t>
+  </si>
+  <si>
+    <t>6.4 (3.2)</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>100.5 (29.9)</t>
+  </si>
+  <si>
+    <t>22.7 (23.3)</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>13.3 (4.4)</t>
+  </si>
+  <si>
+    <t>4.3 (2.2)</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.3 (20.9)</t>
+  </si>
+  <si>
+    <t>33.1 (28.4)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>4.4 (2.4)</t>
+  </si>
+  <si>
+    <t>5.9 (4.8)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>96.2 (31.8)</t>
+  </si>
+  <si>
+    <t>14.6 (5.0)</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.8 (2.9)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>108.2 (36.7)*</t>
+  </si>
+  <si>
+    <t>13.2 (21.0)*</t>
+  </si>
+  <si>
+    <t>34.6 (29.3)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>7.5 (2.4)*</t>
+  </si>
+  <si>
+    <t>4.2 (3.1)*</t>
+  </si>
+  <si>
+    <t>3.8 (2.7)*</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>93.0 (35.2)*</t>
+  </si>
+  <si>
+    <t>24.9 (28.4)*</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.8 (2.3)*</t>
+  </si>
+  <si>
+    <t>2.8 (3.0)*</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)*</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.0 (29.4)*</t>
+  </si>
+  <si>
+    <t>34.8 (28.0)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>3.9 (2.8)*</t>
+  </si>
+  <si>
+    <t>6.1 (2.5)*</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>87.4 (37.7)*</t>
+  </si>
+  <si>
+    <t>20.1 (24.0)*</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.4 (1.5)*</t>
+  </si>
+  <si>
+    <t>3.9 (3.5)*</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)*</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>116.1 (29.9)*</t>
+  </si>
+  <si>
+    <t>11.9 (27.1)*</t>
+  </si>
+  <si>
+    <t>40.7 (29.4)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.1 (4.2)*</t>
+  </si>
+  <si>
+    <t>4.1 (3.3)*</t>
+  </si>
+  <si>
+    <t>6.5 (3.2)*</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>100.5 (29.9)*</t>
+  </si>
+  <si>
+    <t>22.7 (23.3)*</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>13.3 (4.4)*</t>
+  </si>
+  <si>
+    <t>4.3 (2.2)*</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)*</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.3 (20.9)*</t>
+  </si>
+  <si>
+    <t>26.6 (28.6)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>4.4 (2.4)*</t>
+  </si>
+  <si>
+    <t>5.8 (4.9)*</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>96.2 (31.8)*</t>
+  </si>
+  <si>
+    <t>14.6 (5.0)*</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)*</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.8 (2.9)*</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)*</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)*</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>108.2 (36.7)</t>
+  </si>
+  <si>
+    <t>13.2 (21.0)</t>
+  </si>
+  <si>
+    <t>34.6 (29.3)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>7.5 (2.4)</t>
+  </si>
+  <si>
+    <t>4.2 (3.1)</t>
+  </si>
+  <si>
+    <t>3.8 (2.7)</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>93.0 (35.2)</t>
+  </si>
+  <si>
+    <t>24.9 (28.4)</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.8 (2.3)</t>
+  </si>
+  <si>
+    <t>2.8 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.0 (29.4)</t>
+  </si>
+  <si>
+    <t>34.8 (28.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>3.9 (2.8)</t>
+  </si>
+  <si>
+    <t>6.1 (2.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>87.4 (37.7)</t>
+  </si>
+  <si>
+    <t>20.1 (24.0)</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.4 (1.5)</t>
+  </si>
+  <si>
+    <t>3.9 (3.5)</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>116.1 (29.9)</t>
+  </si>
+  <si>
+    <t>11.9 (27.1)</t>
+  </si>
+  <si>
+    <t>40.7 (29.4)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.1 (4.2)</t>
+  </si>
+  <si>
+    <t>4.1 (3.3)</t>
+  </si>
+  <si>
+    <t>6.5 (3.2)</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>100.5 (29.9)</t>
+  </si>
+  <si>
+    <t>22.7 (23.3)</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>13.3 (4.4)</t>
+  </si>
+  <si>
+    <t>4.3 (2.2)</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.3 (20.9)</t>
+  </si>
+  <si>
+    <t>26.6 (28.6)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>4.4 (2.4)</t>
+  </si>
+  <si>
+    <t>5.8 (4.9)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>96.2 (31.8)</t>
+  </si>
+  <si>
+    <t>14.6 (5.0)</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.8 (2.9)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +1225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -548,11 +1250,17 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -565,6 +1273,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,134 +1581,134 @@
     <row r="2" s="2" customFormat="true" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>100</v>
+        <v>334</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1027,134 +1741,134 @@
     <row r="2" s="2" customFormat="true" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>147</v>
+        <v>381</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>365</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>141</v>
+        <v>375</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>145</v>
+        <v>379</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>150</v>
+        <v>384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>124</v>
+        <v>358</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>146</v>
+        <v>380</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/studies/compareCadavers.xlsx
+++ b/studies/compareCadavers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>Fick1850</t>
   </si>
@@ -1167,6 +1167,240 @@
   </si>
   <si>
     <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>96.2 (31.8)</t>
+  </si>
+  <si>
+    <t>14.6 (5.0)</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.8 (2.9)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>108.2 (36.7)</t>
+  </si>
+  <si>
+    <t>13.2 (21.0)</t>
+  </si>
+  <si>
+    <t>34.6 (29.3)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>7.5 (2.4)</t>
+  </si>
+  <si>
+    <t>4.2 (3.1)</t>
+  </si>
+  <si>
+    <t>3.8 (2.7)</t>
+  </si>
+  <si>
+    <t>Debrunner2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>93.0 (35.2)</t>
+  </si>
+  <si>
+    <t>24.9 (28.4)</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.8 (2.3)</t>
+  </si>
+  <si>
+    <t>2.8 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>Iglic2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.0 (29.4)</t>
+  </si>
+  <si>
+    <t>34.8 (28.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>3.9 (2.8)</t>
+  </si>
+  <si>
+    <t>6.1 (2.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>87.4 (37.7)</t>
+  </si>
+  <si>
+    <t>20.1 (24.0)</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>11.4 (1.5)</t>
+  </si>
+  <si>
+    <t>3.9 (3.5)</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>Fick1850</t>
+  </si>
+  <si>
+    <t>Dostal1981</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Pauwels2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>116.1 (29.9)</t>
+  </si>
+  <si>
+    <t>11.9 (27.1)</t>
+  </si>
+  <si>
+    <t>40.7 (29.4)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>10.1 (4.2)</t>
+  </si>
+  <si>
+    <t>4.1 (3.3)</t>
+  </si>
+  <si>
+    <t>6.5 (3.2)</t>
+  </si>
+  <si>
+    <t>Debrunner2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>100.5 (29.9)</t>
+  </si>
+  <si>
+    <t>22.7 (23.3)</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>13.3 (4.4)</t>
+  </si>
+  <si>
+    <t>4.3 (2.2)</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>Iglic2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>23.3 (20.9)</t>
+  </si>
+  <si>
+    <t>26.6 (28.6)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>NaN (NaN)</t>
+  </si>
+  <si>
+    <t>4.4 (2.4)</t>
+  </si>
+  <si>
+    <t>5.8 (4.9)</t>
+  </si>
+  <si>
+    <t>mediTEC2021</t>
   </si>
   <si>
     <t>MAE Mag.</t>
@@ -1225,7 +1459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1256,11 +1490,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1279,6 +1515,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,9 +1805,9 @@
   <cols>
     <col min="1" max="1" width="3.140625" style="5" customWidth="true"/>
     <col min="2" max="2" width="9.42578125" style="2" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.5703125" style="5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.28515625" style="5" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="7.5703125" style="5" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13" style="5" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="7.85546875" style="5" bestFit="true" customWidth="true"/>
     <col min="7" max="7" width="8.7109375" style="5" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="8.42578125" style="5" bestFit="true" customWidth="true"/>
@@ -1581,134 +1819,134 @@
     <row r="2" s="2" customFormat="true" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>347</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>339</v>
+        <v>417</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -1727,9 +1965,9 @@
   <cols>
     <col min="1" max="1" width="3.140625" style="5" customWidth="true"/>
     <col min="2" max="2" width="9.42578125" style="2" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.5703125" style="5" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.28515625" style="5" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="7.85546875" style="5" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13" style="5" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="7.85546875" style="5" bestFit="true" customWidth="true"/>
     <col min="7" max="7" width="8.7109375" style="5" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="8.42578125" style="5" bestFit="true" customWidth="true"/>
@@ -1741,134 +1979,134 @@
     <row r="2" s="2" customFormat="true" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
